--- a/lab1/Zeszyt1.xlsx
+++ b/lab1/Zeszyt1.xlsx
@@ -165,9 +165,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -453,7 +452,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -580,25 +579,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>69.201</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.003</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.26</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.54</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,11 +605,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="48333183"/>
-        <c:axId val="66797691"/>
+        <c:axId val="31219802"/>
+        <c:axId val="97103270"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48333183"/>
+        <c:axId val="31219802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,14 +645,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66797691"/>
+        <c:crossAx val="97103270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66797691"/>
+        <c:axId val="97103270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48333183"/>
+        <c:crossAx val="31219802"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -734,9 +733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -744,8 +743,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="871200" y="1932480"/>
-        <a:ext cx="5138280" cy="3214080"/>
+        <a:off x="870480" y="1932480"/>
+        <a:ext cx="5134320" cy="3213720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -766,7 +765,7 @@
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,8 +823,8 @@
         <v>88</v>
       </c>
       <c r="H4" s="5" t="n">
-        <f aca="false">AVERAGE(C4:G4)</f>
-        <v>69.201</v>
+        <f aca="false">AVERAGE(D4:G4)</f>
+        <v>86.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,8 +844,8 @@
         <v>30</v>
       </c>
       <c r="H5" s="5" t="n">
-        <f aca="false">AVERAGE(C5:G5)</f>
-        <v>25.003</v>
+        <f aca="false">AVERAGE(D5:G5)</f>
+        <v>31.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,8 +865,8 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="n">
-        <f aca="false">AVERAGE(C6:G6)</f>
-        <v>5.26</v>
+        <f aca="false">AVERAGE(D6:G6)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,8 +886,8 @@
         <v>10</v>
       </c>
       <c r="H7" s="5" t="n">
-        <f aca="false">AVERAGE(C7:G7)</f>
-        <v>5.54</v>
+        <f aca="false">AVERAGE(D7:G7)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,8 +907,8 @@
         <v>6</v>
       </c>
       <c r="H8" s="5" t="n">
-        <f aca="false">AVERAGE(C8:G8)</f>
-        <v>4</v>
+        <f aca="false">AVERAGE(D8:G8)</f>
+        <v>4.75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,8 +928,8 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
-        <f aca="false">AVERAGE(C9:G9)</f>
-        <v>1.4</v>
+        <f aca="false">AVERAGE(D9:G9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,8 +949,8 @@
         <v>6</v>
       </c>
       <c r="H10" s="5" t="n">
-        <f aca="false">AVERAGE(C10:G10)</f>
-        <v>6.2</v>
+        <f aca="false">AVERAGE(D10:G10)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/lab1/Zeszyt1.xlsx
+++ b/lab1/Zeszyt1.xlsx
@@ -462,7 +462,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -605,11 +605,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="31219802"/>
-        <c:axId val="97103270"/>
+        <c:axId val="67950603"/>
+        <c:axId val="31091546"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31219802"/>
+        <c:axId val="67950603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,14 +645,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97103270"/>
+        <c:crossAx val="31091546"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97103270"/>
+        <c:axId val="31091546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31219802"/>
+        <c:crossAx val="67950603"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -765,7 +765,7 @@
   <dimension ref="C2:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
